--- a/artfynd/A 41227-2023.xlsx
+++ b/artfynd/A 41227-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1015,6 +1015,498 @@
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>111934050</v>
+      </c>
+      <c r="B5" t="n">
+        <v>93289</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2170</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Flagellkvastmossa</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Dicranum flagellare</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hedw.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>med groddkorn</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Skogen N om Dye, I2-Skogen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>413637.9321653559</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6587076.603947581</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Karlstad</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Grava</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Carl A Andersson</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Carl A Andersson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>111934086</v>
+      </c>
+      <c r="B6" t="n">
+        <v>90689</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Tallskogen N om Dye, I2-Skogen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>413681.2082122188</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6586805.223123537</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Karlstad</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Grava</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Carl A Andersson</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Carl A Andersson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>111934066</v>
+      </c>
+      <c r="B7" t="n">
+        <v>93289</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2170</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Flagellkvastmossa</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Dicranum flagellare</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Hedw.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>med groddkorn</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Skogen N om Dye, I2-Skogen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>413590.3038565172</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6586912.201658082</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Karlstad</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Grava</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Carl A Andersson</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Carl A Andersson</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>111934059</v>
+      </c>
+      <c r="B8" t="n">
+        <v>93289</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2170</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Flagellkvastmossa</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Dicranum flagellare</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hedw.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>med groddkorn</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Skogen N om Dye, I2-Skogen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>413639.6308819132</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6586793.951973591</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Karlstad</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Grava</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Rätt riklig längs stigen</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Carl A Andersson</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Carl A Andersson</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 41227-2023.xlsx
+++ b/artfynd/A 41227-2023.xlsx
@@ -1017,10 +1017,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111934050</v>
+        <v>111934086</v>
       </c>
       <c r="B5" t="n">
-        <v>93289</v>
+        <v>90689</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1029,46 +1029,49 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2170</v>
+        <v>5966</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Hedw.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>med groddkorn</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Skogen N om Dye, I2-Skogen, Vrm</t>
+          <t>Tallskogen N om Dye, I2-Skogen, Vrm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>413637.9321653559</v>
+        <v>413681.2082122188</v>
       </c>
       <c r="R5" t="n">
-        <v>6587076.603947581</v>
+        <v>6586805.223123537</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1138,10 +1141,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111934086</v>
+        <v>111934050</v>
       </c>
       <c r="B6" t="n">
-        <v>90689</v>
+        <v>93289</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1150,49 +1153,46 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5966</v>
+        <v>2170</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
+          <t>Hedw.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>med groddkorn</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Tallskogen N om Dye, I2-Skogen, Vrm</t>
+          <t>Skogen N om Dye, I2-Skogen, Vrm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>413681.2082122188</v>
+        <v>413637.9321653559</v>
       </c>
       <c r="R6" t="n">
-        <v>6586805.223123537</v>
+        <v>6587076.603947581</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111934066</v>
+        <v>111934059</v>
       </c>
       <c r="B7" t="n">
         <v>93289</v>
@@ -1310,10 +1310,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>413590.3038565172</v>
+        <v>413639.6308819132</v>
       </c>
       <c r="R7" t="n">
-        <v>6586912.201658082</v>
+        <v>6586793.951973591</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1356,6 +1356,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Rätt riklig längs stigen</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1383,7 +1388,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111934059</v>
+        <v>111934066</v>
       </c>
       <c r="B8" t="n">
         <v>93289</v>
@@ -1431,10 +1436,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>413639.6308819132</v>
+        <v>413590.3038565172</v>
       </c>
       <c r="R8" t="n">
-        <v>6586793.951973591</v>
+        <v>6586912.201658082</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1477,11 +1482,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Rätt riklig längs stigen</t>
         </is>
       </c>
       <c r="AD8" t="b">

--- a/artfynd/A 41227-2023.xlsx
+++ b/artfynd/A 41227-2023.xlsx
@@ -1017,10 +1017,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111934086</v>
+        <v>111934066</v>
       </c>
       <c r="B5" t="n">
-        <v>90689</v>
+        <v>93289</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1029,49 +1029,46 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5966</v>
+        <v>2170</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+          <t>Hedw.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>med groddkorn</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Tallskogen N om Dye, I2-Skogen, Vrm</t>
+          <t>Skogen N om Dye, I2-Skogen, Vrm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>413681.2082122188</v>
+        <v>413590.3038565172</v>
       </c>
       <c r="R5" t="n">
-        <v>6586805.223123537</v>
+        <v>6586912.201658082</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1262,10 +1259,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111934059</v>
+        <v>111934086</v>
       </c>
       <c r="B7" t="n">
-        <v>93289</v>
+        <v>90689</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1274,46 +1271,49 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2170</v>
+        <v>5966</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Hedw.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>med groddkorn</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Skogen N om Dye, I2-Skogen, Vrm</t>
+          <t>Tallskogen N om Dye, I2-Skogen, Vrm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>413639.6308819132</v>
+        <v>413681.2082122188</v>
       </c>
       <c r="R7" t="n">
-        <v>6586793.951973591</v>
+        <v>6586805.223123537</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1356,11 +1356,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Rätt riklig längs stigen</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1388,7 +1383,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111934066</v>
+        <v>111934059</v>
       </c>
       <c r="B8" t="n">
         <v>93289</v>
@@ -1436,10 +1431,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>413590.3038565172</v>
+        <v>413639.6308819132</v>
       </c>
       <c r="R8" t="n">
-        <v>6586912.201658082</v>
+        <v>6586793.951973591</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1482,6 +1477,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Rätt riklig längs stigen</t>
         </is>
       </c>
       <c r="AD8" t="b">

--- a/artfynd/A 41227-2023.xlsx
+++ b/artfynd/A 41227-2023.xlsx
@@ -1017,7 +1017,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111934066</v>
+        <v>111934059</v>
       </c>
       <c r="B5" t="n">
         <v>93289</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>413590.3038565172</v>
+        <v>413639.6308819132</v>
       </c>
       <c r="R5" t="n">
-        <v>6586912.201658082</v>
+        <v>6586793.951973591</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1111,6 +1111,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Rätt riklig längs stigen</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1138,7 +1143,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111934050</v>
+        <v>111934066</v>
       </c>
       <c r="B6" t="n">
         <v>93289</v>
@@ -1186,10 +1191,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>413637.9321653559</v>
+        <v>413590.3038565172</v>
       </c>
       <c r="R6" t="n">
-        <v>6587076.603947581</v>
+        <v>6586912.201658082</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1383,7 +1388,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111934059</v>
+        <v>111934050</v>
       </c>
       <c r="B8" t="n">
         <v>93289</v>
@@ -1431,10 +1436,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>413639.6308819132</v>
+        <v>413637.9321653559</v>
       </c>
       <c r="R8" t="n">
-        <v>6586793.951973591</v>
+        <v>6587076.603947581</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1477,11 +1482,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Rätt riklig längs stigen</t>
         </is>
       </c>
       <c r="AD8" t="b">

--- a/artfynd/A 41227-2023.xlsx
+++ b/artfynd/A 41227-2023.xlsx
@@ -1264,10 +1264,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111934086</v>
+        <v>111934050</v>
       </c>
       <c r="B7" t="n">
-        <v>90689</v>
+        <v>93289</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,49 +1276,46 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5966</v>
+        <v>2170</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
+          <t>Hedw.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>med groddkorn</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Tallskogen N om Dye, I2-Skogen, Vrm</t>
+          <t>Skogen N om Dye, I2-Skogen, Vrm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>413681.2082122188</v>
+        <v>413637.9321653559</v>
       </c>
       <c r="R7" t="n">
-        <v>6586805.223123537</v>
+        <v>6587076.603947581</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1388,10 +1385,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111934050</v>
+        <v>111934086</v>
       </c>
       <c r="B8" t="n">
-        <v>93289</v>
+        <v>90689</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1400,46 +1397,49 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2170</v>
+        <v>5966</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Hedw.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>med groddkorn</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Skogen N om Dye, I2-Skogen, Vrm</t>
+          <t>Tallskogen N om Dye, I2-Skogen, Vrm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>413637.9321653559</v>
+        <v>413681.2082122188</v>
       </c>
       <c r="R8" t="n">
-        <v>6587076.603947581</v>
+        <v>6586805.223123537</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>

--- a/artfynd/A 41227-2023.xlsx
+++ b/artfynd/A 41227-2023.xlsx
@@ -1017,7 +1017,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111934059</v>
+        <v>111934066</v>
       </c>
       <c r="B5" t="n">
         <v>93289</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>413639.6308819132</v>
+        <v>413590.3038565172</v>
       </c>
       <c r="R5" t="n">
-        <v>6586793.951973591</v>
+        <v>6586912.201658082</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1111,11 +1111,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Rätt riklig längs stigen</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1143,7 +1138,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111934066</v>
+        <v>111934059</v>
       </c>
       <c r="B6" t="n">
         <v>93289</v>
@@ -1191,10 +1186,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>413590.3038565172</v>
+        <v>413639.6308819132</v>
       </c>
       <c r="R6" t="n">
-        <v>6586912.201658082</v>
+        <v>6586793.951973591</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1237,6 +1232,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Rätt riklig längs stigen</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 41227-2023.xlsx
+++ b/artfynd/A 41227-2023.xlsx
@@ -1017,10 +1017,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111934066</v>
+        <v>111934086</v>
       </c>
       <c r="B5" t="n">
-        <v>93289</v>
+        <v>90689</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1029,46 +1029,49 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2170</v>
+        <v>5966</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Hedw.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>med groddkorn</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Skogen N om Dye, I2-Skogen, Vrm</t>
+          <t>Tallskogen N om Dye, I2-Skogen, Vrm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>413590.3038565172</v>
+        <v>413681</v>
       </c>
       <c r="R5" t="n">
-        <v>6586912.201658082</v>
+        <v>6586805</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1098,19 +1101,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1138,7 +1131,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111934059</v>
+        <v>111934050</v>
       </c>
       <c r="B6" t="n">
         <v>93289</v>
@@ -1186,10 +1179,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>413639.6308819132</v>
+        <v>413638</v>
       </c>
       <c r="R6" t="n">
-        <v>6586793.951973591</v>
+        <v>6587077</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1219,24 +1212,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Rätt riklig längs stigen</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1264,7 +1242,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111934050</v>
+        <v>111934059</v>
       </c>
       <c r="B7" t="n">
         <v>93289</v>
@@ -1312,10 +1290,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>413637.9321653559</v>
+        <v>413640</v>
       </c>
       <c r="R7" t="n">
-        <v>6587076.603947581</v>
+        <v>6586794</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1345,19 +1323,14 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Rätt riklig längs stigen</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1385,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111934086</v>
+        <v>111934066</v>
       </c>
       <c r="B8" t="n">
-        <v>90689</v>
+        <v>93289</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1397,49 +1370,46 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5966</v>
+        <v>2170</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+          <t>Hedw.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>med groddkorn</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Tallskogen N om Dye, I2-Skogen, Vrm</t>
+          <t>Skogen N om Dye, I2-Skogen, Vrm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>413681.2082122188</v>
+        <v>413590</v>
       </c>
       <c r="R8" t="n">
-        <v>6586805.223123537</v>
+        <v>6586912</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1469,19 +1439,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">

--- a/artfynd/A 41227-2023.xlsx
+++ b/artfynd/A 41227-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>74916229</v>
+        <v>95950727</v>
       </c>
       <c r="B2" t="n">
-        <v>8377</v>
+        <v>90647</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,42 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>106545</v>
+        <v>4362</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Karlstad I2-området, Vrm</t>
+          <t>Älvåker, Karlstad, Vrm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>413575.6105509654</v>
+        <v>413647.9772134068</v>
       </c>
       <c r="R2" t="n">
-        <v>6586805.091665858</v>
+        <v>6587069.754738707</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,22 +751,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2018-07-09</t>
+          <t>2021-09-06</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:34</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2018-07-09</t>
+          <t>2021-09-06</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:34</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -780,22 +781,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Erland Lindblad, Tony Svensson</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>74916231</v>
+        <v>111934050</v>
       </c>
       <c r="B3" t="n">
-        <v>8377</v>
+        <v>93440</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,37 +809,45 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>106545</v>
+        <v>2170</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>med groddkorn</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Karlstad I2-området, Vrm</t>
+          <t>Skogen N om Dye, I2-Skogen, Vrm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>413722.0845622303</v>
+        <v>413638</v>
       </c>
       <c r="R3" t="n">
-        <v>6586897.477113339</v>
+        <v>6587077</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -862,22 +871,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2018-07-09</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2018-07-09</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -886,28 +885,29 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Carl A Andersson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Erland Lindblad, Tony Svensson</t>
+          <t>Carl A Andersson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>95950727</v>
+        <v>74916229</v>
       </c>
       <c r="B4" t="n">
-        <v>90647</v>
+        <v>8377</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,42 +916,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4362</v>
+        <v>106545</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Älvåker, Karlstad, Vrm</t>
+          <t>Karlstad I2-området, Vrm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>413647.9772134068</v>
+        <v>413575.6105509654</v>
       </c>
       <c r="R4" t="n">
-        <v>6587069.754738707</v>
+        <v>6586805.091665858</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -975,22 +974,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2021-09-06</t>
+          <t>2018-07-09</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>19:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2021-09-06</t>
+          <t>2018-07-09</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>19:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1005,22 +1004,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Erland Lindblad, Tony Svensson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111934086</v>
+        <v>74916231</v>
       </c>
       <c r="B5" t="n">
-        <v>90689</v>
+        <v>8377</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1029,52 +1028,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5966</v>
+        <v>106545</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Tallskogen N om Dye, I2-Skogen, Vrm</t>
+          <t>Karlstad I2-området, Vrm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>413681</v>
+        <v>413722.0845622303</v>
       </c>
       <c r="R5" t="n">
-        <v>6586805</v>
+        <v>6586897.477113339</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1098,12 +1086,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2018-07-09</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2018-07-09</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1112,29 +1110,28 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Carl A Andersson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Carl A Andersson</t>
+          <t>Erland Lindblad, Tony Svensson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111934050</v>
+        <v>111934066</v>
       </c>
       <c r="B6" t="n">
-        <v>93289</v>
+        <v>93440</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1179,10 +1176,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>413638</v>
+        <v>413590</v>
       </c>
       <c r="R6" t="n">
-        <v>6587077</v>
+        <v>6586912</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1245,7 +1242,7 @@
         <v>111934059</v>
       </c>
       <c r="B7" t="n">
-        <v>93289</v>
+        <v>93440</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1358,10 +1355,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111934066</v>
+        <v>111934086</v>
       </c>
       <c r="B8" t="n">
-        <v>93289</v>
+        <v>90823</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,46 +1367,49 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2170</v>
+        <v>5966</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Hedw.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>med groddkorn</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Skogen N om Dye, I2-Skogen, Vrm</t>
+          <t>Tallskogen N om Dye, I2-Skogen, Vrm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>413590</v>
+        <v>413681</v>
       </c>
       <c r="R8" t="n">
-        <v>6586912</v>
+        <v>6586805</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>

--- a/artfynd/A 41227-2023.xlsx
+++ b/artfynd/A 41227-2023.xlsx
@@ -796,7 +796,7 @@
         <v>111934050</v>
       </c>
       <c r="B3" t="n">
-        <v>93440</v>
+        <v>93454</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111934066</v>
+        <v>111934059</v>
       </c>
       <c r="B6" t="n">
-        <v>93440</v>
+        <v>93454</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1176,10 +1176,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>413590</v>
+        <v>413640</v>
       </c>
       <c r="R6" t="n">
-        <v>6586912</v>
+        <v>6586794</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1212,6 +1212,11 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Rätt riklig längs stigen</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1239,10 +1244,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111934059</v>
+        <v>111934066</v>
       </c>
       <c r="B7" t="n">
-        <v>93440</v>
+        <v>93454</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1287,10 +1292,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>413640</v>
+        <v>413590</v>
       </c>
       <c r="R7" t="n">
-        <v>6586794</v>
+        <v>6586912</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1323,11 +1328,6 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Rätt riklig längs stigen</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,7 +1358,7 @@
         <v>111934086</v>
       </c>
       <c r="B8" t="n">
-        <v>90823</v>
+        <v>90837</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>

--- a/artfynd/A 41227-2023.xlsx
+++ b/artfynd/A 41227-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>95950727</v>
+        <v>74916229</v>
       </c>
       <c r="B2" t="n">
-        <v>90647</v>
+        <v>8377</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,42 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4362</v>
+        <v>106545</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Älvåker, Karlstad, Vrm</t>
+          <t>Karlstad I2-området, Vrm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>413647.9772134068</v>
+        <v>413575.6105509654</v>
       </c>
       <c r="R2" t="n">
-        <v>6587069.754738707</v>
+        <v>6586805.091665858</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -751,22 +750,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2021-09-06</t>
+          <t>2018-07-09</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>19:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2021-09-06</t>
+          <t>2018-07-09</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>19:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -781,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Erland Lindblad, Tony Svensson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111934050</v>
+        <v>74916231</v>
       </c>
       <c r="B3" t="n">
-        <v>93454</v>
+        <v>8377</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,45 +808,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2170</v>
+        <v>106545</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>med groddkorn</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Skogen N om Dye, I2-Skogen, Vrm</t>
+          <t>Karlstad I2-området, Vrm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>413638</v>
+        <v>413722.0845622303</v>
       </c>
       <c r="R3" t="n">
-        <v>6587077</v>
+        <v>6586897.477113339</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -871,12 +862,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2018-07-09</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2018-07-09</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -885,29 +886,28 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Carl A Andersson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Carl A Andersson</t>
+          <t>Erland Lindblad, Tony Svensson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>74916229</v>
+        <v>95950727</v>
       </c>
       <c r="B4" t="n">
-        <v>8377</v>
+        <v>90647</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,41 +916,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>106545</v>
+        <v>4362</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Karlstad I2-området, Vrm</t>
+          <t>Älvåker, Karlstad, Vrm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>413575.6105509654</v>
+        <v>413647.9772134068</v>
       </c>
       <c r="R4" t="n">
-        <v>6586805.091665858</v>
+        <v>6587069.754738707</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -974,22 +975,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2018-07-09</t>
+          <t>2021-09-06</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:34</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2018-07-09</t>
+          <t>2021-09-06</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:34</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1004,22 +1005,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Erland Lindblad, Tony Svensson</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>74916231</v>
+        <v>111934066</v>
       </c>
       <c r="B5" t="n">
-        <v>8377</v>
+        <v>93454</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,37 +1033,45 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>106545</v>
+        <v>2170</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>med groddkorn</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Karlstad I2-området, Vrm</t>
+          <t>Skogen N om Dye, I2-Skogen, Vrm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>413722.0845622303</v>
+        <v>413590</v>
       </c>
       <c r="R5" t="n">
-        <v>6586897.477113339</v>
+        <v>6586912</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1086,22 +1095,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2018-07-09</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2018-07-09</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1110,18 +1109,19 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Carl A Andersson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Erland Lindblad, Tony Svensson</t>
+          <t>Carl A Andersson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
@@ -1244,10 +1244,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111934066</v>
+        <v>111934086</v>
       </c>
       <c r="B7" t="n">
-        <v>93454</v>
+        <v>90837</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,46 +1256,49 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2170</v>
+        <v>5966</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Hedw.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>med groddkorn</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Skogen N om Dye, I2-Skogen, Vrm</t>
+          <t>Tallskogen N om Dye, I2-Skogen, Vrm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>413590</v>
+        <v>413681</v>
       </c>
       <c r="R7" t="n">
-        <v>6586912</v>
+        <v>6586805</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1355,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111934086</v>
+        <v>111934050</v>
       </c>
       <c r="B8" t="n">
-        <v>90837</v>
+        <v>93454</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1367,49 +1370,46 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5966</v>
+        <v>2170</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+          <t>Hedw.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>med groddkorn</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Tallskogen N om Dye, I2-Skogen, Vrm</t>
+          <t>Skogen N om Dye, I2-Skogen, Vrm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>413681</v>
+        <v>413638</v>
       </c>
       <c r="R8" t="n">
-        <v>6586805</v>
+        <v>6587077</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
